--- a/BursEnvanter.xlsx
+++ b/BursEnvanter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2663CF-9199-4C65-BD03-728572F07A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9A825F-A268-428D-B1CE-B80AD274A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D2B95B03-BD68-4F09-945E-FBBBF617D392}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve"> quenstedt@daad.de</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Scholarship Search so far, as of 03 rd of August 2021</t>
-  </si>
-  <si>
     <t>https://star-network.org.uk/</t>
   </si>
   <si>
@@ -118,13 +115,31 @@
   </si>
   <si>
     <t>Scholarship Opportunities for Refugees</t>
+  </si>
+  <si>
+    <t>as of 03 rd of August 2021</t>
+  </si>
+  <si>
+    <t>Scholarship Search</t>
+  </si>
+  <si>
+    <t>Supporting people claimed asylum in the UK</t>
+  </si>
+  <si>
+    <t>The Schwab-Westheimer Trust</t>
+  </si>
+  <si>
+    <t>https://www.swtrust.org.uk/the-scholarship-supported-by-the-marks-family-charitable-foundation.html</t>
+  </si>
+  <si>
+    <t>Open to asylum seekers in UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +161,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -197,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -220,8 +244,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -538,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26908F83-4256-4757-9AF6-1F92FC85EB48}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,147 +580,164 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="7" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{C773B2F7-3D25-451C-9508-1CF0021627A5}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{5C1E093E-2887-4AC2-A25B-D2BECC560BAF}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{EC98814B-4BDB-4659-B32D-16FC7CCD87C9}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{9C3D190B-C8F7-4308-BEF7-D1675FA18C54}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{FCB8BC48-DBFF-4740-A08C-6AD54DD3799F}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{F078E311-1193-47ED-9618-BDCFCD6F8C79}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{F2705F93-8307-4736-839D-BDAB4BC35B5A}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{D9A84D69-CE04-4E61-A4E2-AF797367CFA1}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{769FB8FF-7977-4176-950D-EE4FD9A30C87}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{C773B2F7-3D25-451C-9508-1CF0021627A5}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{5C1E093E-2887-4AC2-A25B-D2BECC560BAF}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{EC98814B-4BDB-4659-B32D-16FC7CCD87C9}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{9C3D190B-C8F7-4308-BEF7-D1675FA18C54}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{FCB8BC48-DBFF-4740-A08C-6AD54DD3799F}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{F078E311-1193-47ED-9618-BDCFCD6F8C79}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{F2705F93-8307-4736-839D-BDAB4BC35B5A}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{D9A84D69-CE04-4E61-A4E2-AF797367CFA1}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{769FB8FF-7977-4176-950D-EE4FD9A30C87}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{7B025174-50A0-439D-BC4C-162D0149A8B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId11"/>
 </worksheet>
 </file>
--- a/BursEnvanter.xlsx
+++ b/BursEnvanter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9A825F-A268-428D-B1CE-B80AD274A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB260E-1688-43E7-B317-59F2D208DEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D2B95B03-BD68-4F09-945E-FBBBF617D392}"/>
   </bookViews>
@@ -25,26 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t xml:space="preserve"> quenstedt@daad.de</t>
   </si>
   <si>
-    <t>DAAD does not offer a scholarship programme for a person living abroad who wants to go to a third country.</t>
-  </si>
-  <si>
     <t>UK Government - Professional and Career Development Loans</t>
   </si>
   <si>
-    <t>Applicants must be at least 18 years old and have been resident in the UK for 3 years prior to starting the course.</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/career-development-loans/overview</t>
   </si>
   <si>
-    <t>Funding</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.european-funding-guide.eu/ </t>
   </si>
   <si>
@@ -54,9 +45,6 @@
     <t>https://www.college-de-france.fr/site/programme-pause/index.htm</t>
   </si>
   <si>
-    <t>Information Center for Europe, Europe Direct</t>
-  </si>
-  <si>
     <t>https://europedirectcaen.fr/index.php?</t>
   </si>
   <si>
@@ -69,12 +57,6 @@
     <t>https://crij.bzh/sinformer/europe-international/</t>
   </si>
   <si>
-    <t>Provides fund only for the young people - up to 30 years and for the ones who registered at the French Universities</t>
-  </si>
-  <si>
-    <t>provides co-funding for the scientist at risk, do not fund foreign universities.</t>
-  </si>
-  <si>
     <t>Programme</t>
   </si>
   <si>
@@ -96,9 +78,6 @@
     <t>Council for At-Risk Academics, CARA</t>
   </si>
   <si>
-    <t>Provides support for the ones who are in immediate risk in their home country.</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -111,12 +90,6 @@
     <t>https://services.unhcr.org/opportunities/</t>
   </si>
   <si>
-    <t>UNHCR Opportunuties</t>
-  </si>
-  <si>
-    <t>Scholarship Opportunities for Refugees</t>
-  </si>
-  <si>
     <t>as of 03 rd of August 2021</t>
   </si>
   <si>
@@ -133,23 +106,125 @@
   </si>
   <si>
     <t>Open to asylum seekers in UK</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Doesn't meet the age and resident (only UK) requirement</t>
+  </si>
+  <si>
+    <t>Not possible</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Erasmus Mundus Joint Doctorates (EMJD)</t>
+  </si>
+  <si>
+    <t>EU funded, both Tur and UK not part of it</t>
+  </si>
+  <si>
+    <t>https://eacea.ec.europa.eu/erasmus_mundus/funding/scholarships_students_academics_en.php</t>
+  </si>
+  <si>
+    <t>Municipality of Vire-Normandie</t>
+  </si>
+  <si>
+    <t>The fee is so high</t>
+  </si>
+  <si>
+    <t>https://www.virenormandie.fr/</t>
+  </si>
+  <si>
+    <t>Region Normandie</t>
+  </si>
+  <si>
+    <t>Application will be made on January 2022</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Application will be made on March 2022</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Provides funds only to French institutions</t>
+  </si>
+  <si>
+    <t>Most of funds are open to EU countries</t>
+  </si>
+  <si>
+    <t>Provides funds only to French universities and persons up to 30 years old</t>
+  </si>
+  <si>
+    <t>UNHCR Scholarship Opportunities for Refugees</t>
+  </si>
+  <si>
+    <t>Provides platform for organizations who offers fund to refugees. I already applied Mastercard Foundation Scholars Program and Columbia University Scholarship for Displaced Students (CUSDS)</t>
+  </si>
+  <si>
+    <r>
+      <t>Provides support for the ones who are in immediate risk in their</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> home country.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.normandie.fr/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does not offer a scholarship programme for a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>person of third country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -167,9 +242,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -184,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -193,25 +294,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="dashed">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
+      <right style="dashed">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="dotted">
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -219,36 +337,54 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,179 +701,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26908F83-4256-4757-9AF6-1F92FC85EB48}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="D5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{C773B2F7-3D25-451C-9508-1CF0021627A5}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{5C1E093E-2887-4AC2-A25B-D2BECC560BAF}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{EC98814B-4BDB-4659-B32D-16FC7CCD87C9}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{9C3D190B-C8F7-4308-BEF7-D1675FA18C54}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{FCB8BC48-DBFF-4740-A08C-6AD54DD3799F}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{F078E311-1193-47ED-9618-BDCFCD6F8C79}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{F2705F93-8307-4736-839D-BDAB4BC35B5A}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{D9A84D69-CE04-4E61-A4E2-AF797367CFA1}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{769FB8FF-7977-4176-950D-EE4FD9A30C87}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{7B025174-50A0-439D-BC4C-162D0149A8B4}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{C773B2F7-3D25-451C-9508-1CF0021627A5}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{5C1E093E-2887-4AC2-A25B-D2BECC560BAF}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{EC98814B-4BDB-4659-B32D-16FC7CCD87C9}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{9C3D190B-C8F7-4308-BEF7-D1675FA18C54}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{FCB8BC48-DBFF-4740-A08C-6AD54DD3799F}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{F078E311-1193-47ED-9618-BDCFCD6F8C79}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{F2705F93-8307-4736-839D-BDAB4BC35B5A}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{D9A84D69-CE04-4E61-A4E2-AF797367CFA1}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{769FB8FF-7977-4176-950D-EE4FD9A30C87}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{7B025174-50A0-439D-BC4C-162D0149A8B4}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{83AF8741-DFE6-40F2-BFEA-43F591FA49E4}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{3746D115-933F-4153-B972-F32AF88CDEBB}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{64FF4DD1-73CD-4C72-B575-5D290B0F68F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId14"/>
 </worksheet>
 </file>
--- a/BursEnvanter.xlsx
+++ b/BursEnvanter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB260E-1688-43E7-B317-59F2D208DEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FAD3D0-8663-4BA6-A694-0249B61B693B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D2B95B03-BD68-4F09-945E-FBBBF617D392}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t xml:space="preserve"> quenstedt@daad.de</t>
   </si>
@@ -217,6 +217,30 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Chevening Scholarship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grants funds for master degrees only. Impossible to meet return to home policy due to the refugee status. </t>
+  </si>
+  <si>
+    <t>https://www.cranfield.ac.uk/funding/funding-opportunities/british-chevening-scholarships</t>
+  </si>
+  <si>
+    <t>The Marks Family Charitable Trust</t>
+  </si>
+  <si>
+    <t>Only supports refugee who lives in UK</t>
+  </si>
+  <si>
+    <t>Fulbright</t>
+  </si>
+  <si>
+    <t>Natinality criteria-French only accepted, in US unv has to accept</t>
+  </si>
+  <si>
+    <t>https://fulbright-france.org/fr/espace-bourses-USA/programmes/programme-fulbright-doctorants#:~:text=Cycle%202023%2D2024%20%3A%20l',candidature%20retardataire%20ne%20sera%20accept%C3%A9e.&amp;text=Les%20candidats%20aux%20programmes%20Fulbright,institution%20am%C3%A9ricaine%20de%20leur%20choix.</t>
   </si>
 </sst>
 </file>
@@ -339,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,39 +377,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26908F83-4256-4757-9AF6-1F92FC85EB48}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,284 +748,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="18">
+        <v>44805</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1016,8 +1081,9 @@
     <hyperlink ref="E14" r:id="rId11" xr:uid="{83AF8741-DFE6-40F2-BFEA-43F591FA49E4}"/>
     <hyperlink ref="E15" r:id="rId12" xr:uid="{3746D115-933F-4153-B972-F32AF88CDEBB}"/>
     <hyperlink ref="E16" r:id="rId13" xr:uid="{64FF4DD1-73CD-4C72-B575-5D290B0F68F2}"/>
+    <hyperlink ref="E20" r:id="rId14" location=":~:text=Cycle%202023%2D2024%20%3A%20l',candidature%20retardataire%20ne%20sera%20accept%C3%A9e.&amp;text=Les%20candidats%20aux%20programmes%20Fulbright,institution%20am%C3%A9ricaine%20de%20leur%20choix." display="https://fulbright-france.org/fr/espace-bourses-USA/programmes/programme-fulbright-doctorants#:~:text=Cycle%202023%2D2024%20%3A%20l',candidature%20retardataire%20ne%20sera%20accept%C3%A9e.&amp;text=Les%20candidats%20aux%20programmes%20Fulbright,institution%20am%C3%A9ricaine%20de%20leur%20choix." xr:uid="{D30819F4-5620-4277-AF8C-F94DEF2351AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId15"/>
 </worksheet>
 </file>